--- a/artfynd/A 54960-2021.xlsx
+++ b/artfynd/A 54960-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91835157</v>
+        <v>91835158</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>743978.8790495918</v>
+        <v>744093.0571503892</v>
       </c>
       <c r="R2" t="n">
-        <v>7380207.94865338</v>
+        <v>7380923.014777577</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91835158</v>
+        <v>91835156</v>
       </c>
       <c r="B3" t="n">
         <v>78569</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>744093.0571503892</v>
+        <v>744059.1959170685</v>
       </c>
       <c r="R3" t="n">
-        <v>7380923.014777577</v>
+        <v>7380717.871583337</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91835156</v>
+        <v>91835155</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78472</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>388</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>744059.1959170685</v>
+        <v>744262.217261272</v>
       </c>
       <c r="R4" t="n">
-        <v>7380717.871583337</v>
+        <v>7381080.974431004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91835155</v>
+        <v>98308895</v>
       </c>
       <c r="B5" t="n">
-        <v>78472</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>388</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>744262.217261272</v>
+        <v>744095.6063277301</v>
       </c>
       <c r="R5" t="n">
-        <v>7381080.974431004</v>
+        <v>7380926.052332547</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Adam Helleberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98308895</v>
+        <v>98308906</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>744095.6063277301</v>
+        <v>744432.1604667814</v>
       </c>
       <c r="R6" t="n">
-        <v>7380926.052332547</v>
+        <v>7380727.38233874</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98308906</v>
+        <v>98309136</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>744432.1604667814</v>
+        <v>744159.4687663454</v>
       </c>
       <c r="R7" t="n">
-        <v>7380727.38233874</v>
+        <v>7380780.951896147</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98309136</v>
+        <v>91835157</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>744159.4687663454</v>
+        <v>743978.8790495918</v>
       </c>
       <c r="R8" t="n">
-        <v>7380780.951896147</v>
+        <v>7380207.94865338</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Adam Helleberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
